--- a/similarities/split_global/harmonic_similarity_timestamps_401.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_401.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:00:01.460000', '0:00:09.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:25', '0:00:35.520000')]</t>
+          <t>('0:00:00.260000', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=100.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=25.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:53.060000', '0:01:05.640000')]</t>
+          <t>('0:00:15.027029', '0:00:22.457415')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:04.240000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=53.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=15.027029</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:33.698526', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:32.400000', '0:00:44.110000')]</t>
+          <t>('0:00:40.640000', '0:00:42.420000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+          <t>('0:00:38.900000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:03:16.576000', '0:04:06.376000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=196.576']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=143.182222']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A:min']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#', 'A:min/E']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:51.584671', '0:00:58.620317')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:20.500000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=51.584671']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab'], ['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['C', 'D', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:02.430000'), ('0:00:17.680000', '0:00:20.040000')]</t>
+          <t>('0:00:44.836000', '0:00:49.319000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:55.400000', '0:01:03.680000'), ('0:01:08.800000', '0:01:16.200000')]</t>
+          <t>('0:00:17.014988', '0:00:20.892721')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0', 'https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=55.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=17.014988</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_246</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'A:min7']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'B:min7']]</t>
+          <t>['F#:min7', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:19.178000', '0:00:22.703000')]</t>
+          <t>('0:01:13.300000', '0:01:20.180000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.870226', '0:00:18.187596')]</t>
+          <t>('0:00:05.708194', '0:00:10.061936')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=19.178']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=73.3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-246#t=12.870226']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:01:14.100000', '0:01:20.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+          <t>('0:00:23.140000', '0:00:30.460000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:22.100000', '0:00:29.560000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=22.1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000'), ('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000'), ('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min', 'G#:dim7', 'A:min', 'G#:dim7'], ['E:7', 'A:min', 'G#:dim7', 'A:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:07.300000'), ('0:01:06.920000', '0:01:15.860000')]</t>
+          <t>('0:01:39.445827', '0:01:45.343696')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:20.840000', '0:00:26.580000'), ('0:00:19.360000', '0:00:25.140000')]</t>
+          <t>('0:00:52.740000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=99.445827</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=20.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=19.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:23.760000'), ('0:00:08.980000', '0:00:20.700000')]</t>
+          <t>('0:00:00.240000', '0:00:05.080000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:07.820000'), ('0:00:00.240000', '0:00:05.980000')]</t>
+          <t>('0:00:45.720000', '0:00:49.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=8.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb', 'B:dim7', 'F/5']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb', 'E:dim7/b3', 'Db/5']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:07.170000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:34.104875')]</t>
+          <t>('0:00:15.216000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
